--- a/biology/Médecine/Pierre_Chaulet/Pierre_Chaulet.xlsx
+++ b/biology/Médecine/Pierre_Chaulet/Pierre_Chaulet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Chaulet, né le 27 mars 1930 à Alger et mort le 5 octobre 2012 à Mauguio[1],[2],[3], est un médecin algérien d'origine française, moudjahid[4] durant la guerre d'Algérie aux côtés du FLN. Il a effectué des opérations secrètes avec les combattants du FLN sous les ordres de Abane Ramdane.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Chaulet, né le 27 mars 1930 à Alger et mort le 5 octobre 2012 à Mauguio est un médecin algérien d'origine française, moudjahid durant la guerre d'Algérie aux côtés du FLN. Il a effectué des opérations secrètes avec les combattants du FLN sous les ordres de Abane Ramdane.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fut expulsé en France, mais il arrive à rejoindre avec sa femme Claudine, le FLN en Tunisie où il a continué ses activités de résistant en tant que médecin et a écrit dans le journal du FLN, El Moudjahid.
 Il fait la rencontre de Frantz Fanon à l’hôpital psychiatrique de Blida en 1955.
 « En février 1955, Abane Ramdane est venu me demander de trouver un psychiatre pour suivre le cas des moudjahidines qui risquaient de parler sous la torture. Et c’est à partir de là que j’ai connu Frantz Fanon, qui a hébergé également des malades à l’hôpital de Blida. »
-Après l'indépendance de l'Algérie, Chaulet a rejoint l'hôpital Mustapha Pacha. Il a contribué à l'éradication de la tuberculose en Algérie avec son amie de faculté Jeanine Belkhodja[5]. Claudine Chaulet est quant à elle, devenue professeure de sociologie à l'université d'Alger.
-Coauteur avec sa femme Claudine de leurs mémoires : Le choix de l'Algérie : deux voix, une mémoire, sorti en 2012 aux éditions Barzakh. Claudine est décédée le 29 octobre 2015 à Alger à l'âge de 84 ans[6].
+Après l'indépendance de l'Algérie, Chaulet a rejoint l'hôpital Mustapha Pacha. Il a contribué à l'éradication de la tuberculose en Algérie avec son amie de faculté Jeanine Belkhodja. Claudine Chaulet est quant à elle, devenue professeure de sociologie à l'université d'Alger.
+Coauteur avec sa femme Claudine de leurs mémoires : Le choix de l'Algérie : deux voix, une mémoire, sorti en 2012 aux éditions Barzakh. Claudine est décédée le 29 octobre 2015 à Alger à l'âge de 84 ans.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La clinique des grands brûlés d’Alger porte le nom de Pierre et Claudine Chaulet[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clinique des grands brûlés d’Alger porte le nom de Pierre et Claudine Chaulet.
 </t>
         </is>
       </c>
